--- a/Table/ItemTable.xlsx
+++ b/Table/ItemTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C0FBF4-CD9D-487F-803E-26D2951DD3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957B5B52-E38D-40B0-9F8D-C3929FE1EAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="2175" windowWidth="21600" windowHeight="11332" tabRatio="838" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="15563" tabRatio="838" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="56" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,10 +233,6 @@
   </si>
   <si>
     <t>ability_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>능력치 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -330,10 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ability_types</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>List&lt;int&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,6 +335,41 @@
   </si>
   <si>
     <t>ability_initial_values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Ads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고제거 상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentUpgradeAbility 에서 GroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability_groupIds</t>
+  </si>
+  <si>
+    <t>ability_groupIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력치 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability_gropId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력치 그룹 Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,17 +538,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Q84"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:M3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -931,13 +958,13 @@
       <c r="J4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="15">
-        <v>1</v>
-      </c>
-      <c r="L4" s="15" t="s">
+      <c r="K4" s="16">
+        <v>1</v>
+      </c>
+      <c r="L4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="N4" s="4">
@@ -954,9 +981,9 @@
       <c r="J5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
       <c r="N5" s="4">
         <v>2</v>
       </c>
@@ -968,21 +995,21 @@
       </c>
     </row>
     <row r="6" spans="3:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.6">
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="3:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.6">
-      <c r="K7" s="18">
+      <c r="K7" s="17">
         <v>2</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="N7" s="8">
@@ -997,9 +1024,9 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="3:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.6">
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="8">
         <v>2</v>
       </c>
@@ -1012,26 +1039,38 @@
       <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="3:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.6">
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
       <c r="N9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="3:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.6">
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
+      <c r="K10" s="8">
+        <v>7</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="3:17" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.6">
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
@@ -1045,9 +1084,9 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.6">
       <c r="C13" s="4"/>
@@ -1057,9 +1096,9 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
@@ -1089,13 +1128,13 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="K15" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" s="15" t="s">
+      <c r="K15" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1107,9 +1146,9 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.6">
       <c r="C17" s="4"/>
@@ -1119,9 +1158,9 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.6">
       <c r="C18" s="4"/>
@@ -1131,13 +1170,13 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="K18" s="18" t="b">
+      <c r="K18" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="17" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1149,9 +1188,9 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.6">
       <c r="C20" s="4"/>
@@ -1161,9 +1200,9 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.6">
       <c r="C21" s="4"/>
@@ -1743,6 +1782,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="L11:L13"/>
     <mergeCell ref="K11:K13"/>
@@ -1752,12 +1797,6 @@
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="L7:L9"/>
     <mergeCell ref="M7:M9"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1767,29 +1806,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A0B5A6-E460-460C-83C7-15F30AF22EB0}">
-  <dimension ref="B1:L8"/>
+  <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="3" max="3" width="17.4375" customWidth="1"/>
-    <col min="4" max="4" width="16.6875" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="16.3125" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
-    <col min="10" max="10" width="17.8125" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="16.3125" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="17.8125" customWidth="1"/>
+    <col min="10" max="10" width="37.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1800,16 +1839,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1817,28 +1853,25 @@
         <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B4" s="4" t="s">
         <v>46</v>
       </c>
@@ -1854,40 +1887,58 @@
       <c r="F4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1</v>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.6">
-      <c r="J5" s="4">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="I5" s="4">
         <v>2</v>
       </c>
+      <c r="J5" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="K5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.6">
-      <c r="J6" s="8"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.6">
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.6">
-      <c r="J8" s="8"/>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="I6" s="8"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="I9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="I10" s="4"/>
+      <c r="J10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="I11" s="4"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1897,36 +1948,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:K203"/>
+  <dimension ref="B1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="2" width="28.875" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.375" customWidth="1"/>
-    <col min="9" max="9" width="19.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.375" customWidth="1"/>
+    <col min="10" max="10" width="19.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="8" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:12" s="8" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.6">
+        <v>84</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.6">
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1934,19 +1988,22 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.6">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1954,28 +2011,31 @@
         <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:12" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.6">
       <c r="B4" s="10">
         <v>1001</v>
       </c>
@@ -1986,22 +2046,25 @@
         <v>1</v>
       </c>
       <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
         <v>1002</v>
       </c>
-      <c r="F4" s="10">
+      <c r="G4" s="10">
         <v>0</v>
       </c>
-      <c r="G4" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.6">
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.6">
       <c r="B5" s="10">
         <v>1002</v>
       </c>
@@ -2009,25 +2072,28 @@
         <v>1</v>
       </c>
       <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
         <v>2</v>
       </c>
-      <c r="E5" s="10">
+      <c r="F5" s="10">
         <v>1003</v>
       </c>
-      <c r="F5" s="10">
+      <c r="G5" s="10">
         <v>10</v>
       </c>
-      <c r="G5" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="H5" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="J5" s="4">
         <v>2</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.6">
+      <c r="K5" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.6">
       <c r="B6" s="10">
         <v>1003</v>
       </c>
@@ -2035,25 +2101,28 @@
         <v>1</v>
       </c>
       <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
         <v>3</v>
       </c>
-      <c r="E6" s="10">
+      <c r="F6" s="10">
         <v>1004</v>
       </c>
-      <c r="F6" s="10">
+      <c r="G6" s="10">
         <v>20</v>
       </c>
-      <c r="G6" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="H6" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="J6" s="4">
         <v>3</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.6">
+      <c r="K6" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.6">
       <c r="B7" s="10">
         <v>1004</v>
       </c>
@@ -2061,25 +2130,28 @@
         <v>1</v>
       </c>
       <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
         <v>4</v>
       </c>
-      <c r="E7" s="10">
+      <c r="F7" s="10">
         <v>1005</v>
       </c>
-      <c r="F7" s="10">
+      <c r="G7" s="10">
         <v>30</v>
       </c>
-      <c r="G7" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="J7" s="4">
         <v>4</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.6">
+      <c r="K7" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.6">
       <c r="B8" s="10">
         <v>1005</v>
       </c>
@@ -2087,25 +2159,28 @@
         <v>1</v>
       </c>
       <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
         <v>5</v>
       </c>
-      <c r="E8" s="10">
+      <c r="F8" s="10">
         <v>1006</v>
       </c>
-      <c r="F8" s="10">
+      <c r="G8" s="10">
         <v>40</v>
       </c>
-      <c r="G8" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="H8" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="J8" s="4">
         <v>5</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.6">
+      <c r="K8" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.6">
       <c r="B9" s="10">
         <v>1006</v>
       </c>
@@ -2113,25 +2188,28 @@
         <v>1</v>
       </c>
       <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
         <v>6</v>
       </c>
-      <c r="E9" s="10">
+      <c r="F9" s="10">
         <v>1007</v>
       </c>
-      <c r="F9" s="10">
+      <c r="G9" s="10">
         <v>50</v>
       </c>
-      <c r="G9" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="H9" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="J9" s="4">
         <v>6</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.6">
+      <c r="K9" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.6">
       <c r="B10" s="10">
         <v>1007</v>
       </c>
@@ -2139,25 +2217,28 @@
         <v>1</v>
       </c>
       <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
         <v>7</v>
       </c>
-      <c r="E10" s="10">
+      <c r="F10" s="10">
         <v>1008</v>
       </c>
-      <c r="F10" s="10">
+      <c r="G10" s="10">
         <v>51</v>
       </c>
-      <c r="G10" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="H10" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="J10" s="4">
         <v>7</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.6">
+      <c r="K10" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.6">
       <c r="B11" s="10">
         <v>1008</v>
       </c>
@@ -2165,25 +2246,28 @@
         <v>1</v>
       </c>
       <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
         <v>8</v>
       </c>
-      <c r="E11" s="10">
+      <c r="F11" s="10">
         <v>1009</v>
       </c>
-      <c r="F11" s="10">
+      <c r="G11" s="10">
         <v>52</v>
       </c>
-      <c r="G11" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="H11" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="J11" s="4">
         <v>8</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="K11" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.6">
       <c r="B12" s="10">
         <v>1009</v>
       </c>
@@ -2191,25 +2275,28 @@
         <v>1</v>
       </c>
       <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
         <v>9</v>
       </c>
-      <c r="E12" s="10">
+      <c r="F12" s="10">
         <v>1010</v>
       </c>
-      <c r="F12" s="10">
+      <c r="G12" s="10">
         <v>53</v>
       </c>
-      <c r="G12" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="H12" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="J12" s="4">
         <v>9</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="K12" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.6">
       <c r="B13" s="10">
         <v>1010</v>
       </c>
@@ -2217,25 +2304,28 @@
         <v>1</v>
       </c>
       <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
         <v>10</v>
       </c>
-      <c r="E13" s="10">
+      <c r="F13" s="10">
         <v>1011</v>
       </c>
-      <c r="F13" s="10">
+      <c r="G13" s="10">
         <v>54</v>
       </c>
-      <c r="G13" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="H13" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="J13" s="4">
         <v>10</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="K13" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.6">
       <c r="B14" s="10">
         <v>1011</v>
       </c>
@@ -2243,25 +2333,28 @@
         <v>1</v>
       </c>
       <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
         <v>11</v>
       </c>
-      <c r="E14" s="10">
+      <c r="F14" s="10">
         <v>1012</v>
       </c>
-      <c r="F14" s="10">
+      <c r="G14" s="10">
         <v>55</v>
       </c>
-      <c r="G14" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="H14" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="J14" s="4">
         <v>11</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="K14" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.6">
       <c r="B15" s="10">
         <v>1012</v>
       </c>
@@ -2269,25 +2362,28 @@
         <v>1</v>
       </c>
       <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
         <v>12</v>
       </c>
-      <c r="E15" s="10">
+      <c r="F15" s="10">
         <v>1013</v>
       </c>
-      <c r="F15" s="10">
+      <c r="G15" s="10">
         <v>56</v>
       </c>
-      <c r="G15" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="H15" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="J15" s="4">
         <v>12</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="K15" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.6">
       <c r="B16" s="10">
         <v>1013</v>
       </c>
@@ -2295,25 +2391,28 @@
         <v>1</v>
       </c>
       <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
         <v>13</v>
       </c>
-      <c r="E16" s="10">
+      <c r="F16" s="10">
         <v>1014</v>
       </c>
-      <c r="F16" s="10">
+      <c r="G16" s="10">
         <v>57</v>
       </c>
-      <c r="G16" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="H16" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="J16" s="4">
         <v>13</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="K16" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B17" s="10">
         <v>1014</v>
       </c>
@@ -2321,25 +2420,28 @@
         <v>1</v>
       </c>
       <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
         <v>14</v>
       </c>
-      <c r="E17" s="10">
+      <c r="F17" s="10">
         <v>1015</v>
       </c>
-      <c r="F17" s="10">
+      <c r="G17" s="10">
         <v>58</v>
       </c>
-      <c r="G17" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="H17" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="J17" s="4">
         <v>14</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="K17" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B18" s="10">
         <v>1015</v>
       </c>
@@ -2347,25 +2449,28 @@
         <v>1</v>
       </c>
       <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
         <v>15</v>
       </c>
-      <c r="E18" s="10">
+      <c r="F18" s="10">
         <v>1016</v>
       </c>
-      <c r="F18" s="10">
+      <c r="G18" s="10">
         <v>59</v>
       </c>
-      <c r="G18" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="H18" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="J18" s="4">
         <v>15</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="K18" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B19" s="10">
         <v>1016</v>
       </c>
@@ -2373,25 +2478,28 @@
         <v>1</v>
       </c>
       <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
         <v>16</v>
       </c>
-      <c r="E19" s="10">
+      <c r="F19" s="10">
         <v>1017</v>
       </c>
-      <c r="F19" s="10">
+      <c r="G19" s="10">
         <v>60</v>
       </c>
-      <c r="G19" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="I19" s="4">
+      <c r="H19" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="J19" s="4">
         <v>16</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="K19" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B20" s="10">
         <v>1017</v>
       </c>
@@ -2399,25 +2507,28 @@
         <v>1</v>
       </c>
       <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10">
         <v>17</v>
       </c>
-      <c r="E20" s="10">
+      <c r="F20" s="10">
         <v>1018</v>
       </c>
-      <c r="F20" s="10">
+      <c r="G20" s="10">
         <v>70</v>
       </c>
-      <c r="G20" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="H20" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="J20" s="4">
         <v>17</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="K20" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B21" s="10">
         <v>1018</v>
       </c>
@@ -2425,25 +2536,28 @@
         <v>1</v>
       </c>
       <c r="D21" s="10">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10">
         <v>18</v>
       </c>
-      <c r="E21" s="10">
+      <c r="F21" s="10">
         <v>1019</v>
       </c>
-      <c r="F21" s="10">
+      <c r="G21" s="10">
         <v>80</v>
       </c>
-      <c r="G21" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="H21" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="J21" s="4">
         <v>18</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="K21" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B22" s="10">
         <v>1019</v>
       </c>
@@ -2451,25 +2565,28 @@
         <v>1</v>
       </c>
       <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
         <v>19</v>
       </c>
-      <c r="E22" s="10">
+      <c r="F22" s="10">
         <v>1020</v>
       </c>
-      <c r="F22" s="10">
+      <c r="G22" s="10">
         <v>90</v>
       </c>
-      <c r="G22" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="I22" s="4">
+      <c r="H22" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="J22" s="4">
         <v>19</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="K22" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B23" s="10">
         <v>1020</v>
       </c>
@@ -2477,25 +2594,28 @@
         <v>1</v>
       </c>
       <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10">
         <v>20</v>
       </c>
-      <c r="E23" s="10">
+      <c r="F23" s="10">
         <v>1021</v>
       </c>
-      <c r="F23" s="10">
+      <c r="G23" s="10">
         <v>91</v>
       </c>
-      <c r="G23" s="10">
-        <v>1.01</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="H23" s="10">
+        <v>1.01</v>
+      </c>
+      <c r="J23" s="4">
         <v>20</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="K23" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B24" s="10">
         <v>1021</v>
       </c>
@@ -2503,19 +2623,22 @@
         <v>1</v>
       </c>
       <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
         <v>21</v>
       </c>
-      <c r="E24" s="10">
+      <c r="F24" s="10">
         <v>1022</v>
       </c>
-      <c r="F24" s="10">
+      <c r="G24" s="10">
         <v>92</v>
       </c>
-      <c r="G24" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="H24" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B25" s="10">
         <v>1022</v>
       </c>
@@ -2523,19 +2646,22 @@
         <v>1</v>
       </c>
       <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
         <v>22</v>
       </c>
-      <c r="E25" s="10">
+      <c r="F25" s="10">
         <v>1023</v>
       </c>
-      <c r="F25" s="10">
+      <c r="G25" s="10">
         <v>93</v>
       </c>
-      <c r="G25" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="H25" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B26" s="10">
         <v>1023</v>
       </c>
@@ -2543,19 +2669,22 @@
         <v>1</v>
       </c>
       <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10">
         <v>23</v>
       </c>
-      <c r="E26" s="10">
+      <c r="F26" s="10">
         <v>1024</v>
       </c>
-      <c r="F26" s="10">
+      <c r="G26" s="10">
         <v>94</v>
       </c>
-      <c r="G26" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="H26" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B27" s="10">
         <v>1024</v>
       </c>
@@ -2563,19 +2692,22 @@
         <v>1</v>
       </c>
       <c r="D27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10">
         <v>24</v>
       </c>
-      <c r="E27" s="10">
+      <c r="F27" s="10">
         <v>1025</v>
       </c>
-      <c r="F27" s="10">
+      <c r="G27" s="10">
         <v>95</v>
       </c>
-      <c r="G27" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="H27" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B28" s="10">
         <v>1025</v>
       </c>
@@ -2583,19 +2715,22 @@
         <v>1</v>
       </c>
       <c r="D28" s="10">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10">
         <v>25</v>
       </c>
-      <c r="E28" s="10">
+      <c r="F28" s="10">
         <v>1026</v>
       </c>
-      <c r="F28" s="10">
+      <c r="G28" s="10">
         <v>96</v>
       </c>
-      <c r="G28" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="H28" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B29" s="10">
         <v>1026</v>
       </c>
@@ -2603,19 +2738,22 @@
         <v>1</v>
       </c>
       <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
         <v>26</v>
       </c>
-      <c r="E29" s="10">
+      <c r="F29" s="10">
         <v>1027</v>
       </c>
-      <c r="F29" s="10">
+      <c r="G29" s="10">
         <v>97</v>
       </c>
-      <c r="G29" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="H29" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B30" s="10">
         <v>1027</v>
       </c>
@@ -2623,19 +2761,22 @@
         <v>1</v>
       </c>
       <c r="D30" s="10">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10">
         <v>27</v>
       </c>
-      <c r="E30" s="10">
+      <c r="F30" s="10">
         <v>1028</v>
       </c>
-      <c r="F30" s="10">
+      <c r="G30" s="10">
         <v>98</v>
       </c>
-      <c r="G30" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="H30" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B31" s="10">
         <v>1028</v>
       </c>
@@ -2643,19 +2784,22 @@
         <v>1</v>
       </c>
       <c r="D31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10">
         <v>28</v>
       </c>
-      <c r="E31" s="10">
+      <c r="F31" s="10">
         <v>1029</v>
       </c>
-      <c r="F31" s="10">
+      <c r="G31" s="10">
         <v>99</v>
       </c>
-      <c r="G31" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="H31" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B32" s="10">
         <v>1029</v>
       </c>
@@ -2663,19 +2807,22 @@
         <v>1</v>
       </c>
       <c r="D32" s="10">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10">
         <v>29</v>
       </c>
-      <c r="E32" s="10">
+      <c r="F32" s="10">
         <v>1030</v>
       </c>
-      <c r="F32" s="10">
+      <c r="G32" s="10">
         <v>100</v>
       </c>
-      <c r="G32" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H32" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B33" s="10">
         <v>1030</v>
       </c>
@@ -2683,19 +2830,22 @@
         <v>1</v>
       </c>
       <c r="D33" s="10">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10">
         <v>30</v>
       </c>
-      <c r="E33" s="10">
+      <c r="F33" s="10">
         <v>1031</v>
       </c>
-      <c r="F33" s="10">
+      <c r="G33" s="10">
         <v>101</v>
       </c>
-      <c r="G33" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H33" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B34" s="10">
         <v>1031</v>
       </c>
@@ -2703,19 +2853,22 @@
         <v>1</v>
       </c>
       <c r="D34" s="10">
+        <v>1</v>
+      </c>
+      <c r="E34" s="10">
         <v>31</v>
       </c>
-      <c r="E34" s="10">
+      <c r="F34" s="10">
         <v>1032</v>
       </c>
-      <c r="F34" s="10">
+      <c r="G34" s="10">
         <v>110</v>
       </c>
-      <c r="G34" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H34" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B35" s="10">
         <v>1032</v>
       </c>
@@ -2723,19 +2876,22 @@
         <v>1</v>
       </c>
       <c r="D35" s="10">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10">
         <v>32</v>
       </c>
-      <c r="E35" s="10">
+      <c r="F35" s="10">
         <v>1033</v>
       </c>
-      <c r="F35" s="10">
+      <c r="G35" s="10">
         <v>111</v>
       </c>
-      <c r="G35" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H35" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B36" s="10">
         <v>1033</v>
       </c>
@@ -2743,19 +2899,22 @@
         <v>1</v>
       </c>
       <c r="D36" s="10">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10">
         <v>33</v>
       </c>
-      <c r="E36" s="10">
+      <c r="F36" s="10">
         <v>1034</v>
       </c>
-      <c r="F36" s="10">
+      <c r="G36" s="10">
         <v>112</v>
       </c>
-      <c r="G36" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H36" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B37" s="10">
         <v>1034</v>
       </c>
@@ -2763,19 +2922,22 @@
         <v>1</v>
       </c>
       <c r="D37" s="10">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10">
         <v>34</v>
       </c>
-      <c r="E37" s="10">
+      <c r="F37" s="10">
         <v>1035</v>
       </c>
-      <c r="F37" s="10">
+      <c r="G37" s="10">
         <v>113</v>
       </c>
-      <c r="G37" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H37" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B38" s="10">
         <v>1035</v>
       </c>
@@ -2783,19 +2945,22 @@
         <v>1</v>
       </c>
       <c r="D38" s="10">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10">
         <v>35</v>
       </c>
-      <c r="E38" s="10">
+      <c r="F38" s="10">
         <v>1036</v>
       </c>
-      <c r="F38" s="10">
+      <c r="G38" s="10">
         <v>114</v>
       </c>
-      <c r="G38" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H38" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B39" s="10">
         <v>1036</v>
       </c>
@@ -2803,19 +2968,22 @@
         <v>1</v>
       </c>
       <c r="D39" s="10">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10">
         <v>36</v>
       </c>
-      <c r="E39" s="10">
+      <c r="F39" s="10">
         <v>1037</v>
       </c>
-      <c r="F39" s="10">
+      <c r="G39" s="10">
         <v>115</v>
       </c>
-      <c r="G39" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H39" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B40" s="10">
         <v>1037</v>
       </c>
@@ -2823,19 +2991,22 @@
         <v>1</v>
       </c>
       <c r="D40" s="10">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10">
         <v>37</v>
       </c>
-      <c r="E40" s="10">
+      <c r="F40" s="10">
         <v>1038</v>
       </c>
-      <c r="F40" s="10">
+      <c r="G40" s="10">
         <v>116</v>
       </c>
-      <c r="G40" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H40" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B41" s="10">
         <v>1038</v>
       </c>
@@ -2843,19 +3014,22 @@
         <v>1</v>
       </c>
       <c r="D41" s="10">
+        <v>1</v>
+      </c>
+      <c r="E41" s="10">
         <v>38</v>
       </c>
-      <c r="E41" s="10">
+      <c r="F41" s="10">
         <v>1039</v>
       </c>
-      <c r="F41" s="10">
+      <c r="G41" s="10">
         <v>117</v>
       </c>
-      <c r="G41" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H41" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B42" s="10">
         <v>1039</v>
       </c>
@@ -2863,19 +3037,22 @@
         <v>1</v>
       </c>
       <c r="D42" s="10">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10">
         <v>39</v>
       </c>
-      <c r="E42" s="10">
+      <c r="F42" s="10">
         <v>1040</v>
       </c>
-      <c r="F42" s="10">
+      <c r="G42" s="10">
         <v>119</v>
       </c>
-      <c r="G42" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H42" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B43" s="10">
         <v>1040</v>
       </c>
@@ -2883,19 +3060,22 @@
         <v>1</v>
       </c>
       <c r="D43" s="10">
+        <v>1</v>
+      </c>
+      <c r="E43" s="10">
         <v>40</v>
       </c>
-      <c r="E43" s="10">
+      <c r="F43" s="10">
         <v>1041</v>
       </c>
-      <c r="F43" s="10">
+      <c r="G43" s="10">
         <v>120</v>
       </c>
-      <c r="G43" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H43" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B44" s="10">
         <v>1041</v>
       </c>
@@ -2903,19 +3083,22 @@
         <v>1</v>
       </c>
       <c r="D44" s="10">
+        <v>1</v>
+      </c>
+      <c r="E44" s="10">
         <v>41</v>
       </c>
-      <c r="E44" s="10">
+      <c r="F44" s="10">
         <v>1042</v>
       </c>
-      <c r="F44" s="10">
+      <c r="G44" s="10">
         <v>130</v>
       </c>
-      <c r="G44" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H44" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B45" s="10">
         <v>1042</v>
       </c>
@@ -2923,19 +3106,22 @@
         <v>1</v>
       </c>
       <c r="D45" s="10">
+        <v>1</v>
+      </c>
+      <c r="E45" s="10">
         <v>42</v>
       </c>
-      <c r="E45" s="10">
+      <c r="F45" s="10">
         <v>1043</v>
       </c>
-      <c r="F45" s="10">
+      <c r="G45" s="10">
         <v>140</v>
       </c>
-      <c r="G45" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H45" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B46" s="10">
         <v>1043</v>
       </c>
@@ -2943,19 +3129,22 @@
         <v>1</v>
       </c>
       <c r="D46" s="10">
+        <v>1</v>
+      </c>
+      <c r="E46" s="10">
         <v>43</v>
       </c>
-      <c r="E46" s="10">
+      <c r="F46" s="10">
         <v>1044</v>
       </c>
-      <c r="F46" s="10">
+      <c r="G46" s="10">
         <v>150</v>
       </c>
-      <c r="G46" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H46" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B47" s="10">
         <v>1044</v>
       </c>
@@ -2963,19 +3152,22 @@
         <v>1</v>
       </c>
       <c r="D47" s="10">
+        <v>1</v>
+      </c>
+      <c r="E47" s="10">
         <v>44</v>
       </c>
-      <c r="E47" s="10">
+      <c r="F47" s="10">
         <v>1045</v>
       </c>
-      <c r="F47" s="10">
+      <c r="G47" s="10">
         <v>160</v>
       </c>
-      <c r="G47" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H47" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B48" s="10">
         <v>1045</v>
       </c>
@@ -2983,19 +3175,22 @@
         <v>1</v>
       </c>
       <c r="D48" s="10">
+        <v>1</v>
+      </c>
+      <c r="E48" s="10">
         <v>45</v>
       </c>
-      <c r="E48" s="10">
+      <c r="F48" s="10">
         <v>1046</v>
       </c>
-      <c r="F48" s="10">
+      <c r="G48" s="10">
         <v>170</v>
       </c>
-      <c r="G48" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H48" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B49" s="10">
         <v>1046</v>
       </c>
@@ -3003,19 +3198,22 @@
         <v>1</v>
       </c>
       <c r="D49" s="10">
+        <v>1</v>
+      </c>
+      <c r="E49" s="10">
         <v>46</v>
       </c>
-      <c r="E49" s="10">
+      <c r="F49" s="10">
         <v>1047</v>
       </c>
-      <c r="F49" s="10">
+      <c r="G49" s="10">
         <v>180</v>
       </c>
-      <c r="G49" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H49" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B50" s="10">
         <v>1047</v>
       </c>
@@ -3023,19 +3221,22 @@
         <v>1</v>
       </c>
       <c r="D50" s="10">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10">
         <v>47</v>
       </c>
-      <c r="E50" s="10">
+      <c r="F50" s="10">
         <v>1048</v>
       </c>
-      <c r="F50" s="10">
+      <c r="G50" s="10">
         <v>190</v>
       </c>
-      <c r="G50" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H50" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B51" s="10">
         <v>1048</v>
       </c>
@@ -3043,19 +3244,22 @@
         <v>1</v>
       </c>
       <c r="D51" s="10">
+        <v>1</v>
+      </c>
+      <c r="E51" s="10">
         <v>48</v>
       </c>
-      <c r="E51" s="10">
+      <c r="F51" s="10">
         <v>1049</v>
       </c>
-      <c r="F51" s="10">
+      <c r="G51" s="10">
         <v>200</v>
       </c>
-      <c r="G51" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H51" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B52" s="10">
         <v>1049</v>
       </c>
@@ -3063,19 +3267,22 @@
         <v>1</v>
       </c>
       <c r="D52" s="10">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10">
         <v>49</v>
       </c>
-      <c r="E52" s="10">
+      <c r="F52" s="10">
         <v>1050</v>
       </c>
-      <c r="F52" s="10">
+      <c r="G52" s="10">
         <v>300</v>
       </c>
-      <c r="G52" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H52" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B53" s="10">
         <v>1050</v>
       </c>
@@ -3083,1217 +3290,1370 @@
         <v>1</v>
       </c>
       <c r="D53" s="10">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10">
         <v>50</v>
       </c>
-      <c r="E53" s="10">
+      <c r="F53" s="10">
         <v>0</v>
       </c>
-      <c r="F53" s="10">
+      <c r="G53" s="10">
         <v>400</v>
       </c>
-      <c r="G53" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H53" s="10">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H56" s="11"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H57" s="11"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H58" s="11"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H59" s="11"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H60" s="11"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H61" s="11"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H62" s="11"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H63" s="11"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H64" s="11"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H65" s="11"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H67" s="11"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H68" s="11"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H69" s="11"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H71" s="11"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H73" s="11"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H74" s="11"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H75" s="11"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H76" s="11"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H77" s="11"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H78" s="11"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H79" s="11"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H80" s="11"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H81" s="11"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H82" s="11"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H83" s="11"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H84" s="11"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H85" s="11"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H86" s="11"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H87" s="11"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H88" s="11"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H89" s="11"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H90" s="11"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H91" s="11"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H92" s="11"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H93" s="11"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H94" s="11"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H95" s="11"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H96" s="11"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H97" s="11"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H98" s="11"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H99" s="11"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H100" s="11"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H101" s="11"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H102" s="11"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H103" s="11"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H104" s="12"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H105" s="12"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H106" s="12"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H107" s="12"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H108" s="12"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H109" s="12"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H110" s="12"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H111" s="12"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
       <c r="G112" s="12"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H112" s="12"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
       <c r="G113" s="12"/>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H113" s="12"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
       <c r="G114" s="12"/>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H114" s="12"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H115" s="12"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H116" s="12"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H117" s="12"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
       <c r="G118" s="12"/>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H118" s="12"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H119" s="12"/>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
       <c r="G120" s="12"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H120" s="12"/>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H121" s="12"/>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H122" s="12"/>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H123" s="12"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H124" s="12"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H125" s="12"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
       <c r="G126" s="12"/>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H126" s="12"/>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H127" s="12"/>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H128" s="12"/>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H129" s="12"/>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H130" s="12"/>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H131" s="12"/>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
       <c r="D132" s="12"/>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H132" s="12"/>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H133" s="12"/>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H134" s="12"/>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
       <c r="D135" s="12"/>
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
       <c r="G135" s="12"/>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H135" s="12"/>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
       <c r="D136" s="12"/>
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
       <c r="G136" s="12"/>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H136" s="12"/>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
       <c r="G137" s="12"/>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H137" s="12"/>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
       <c r="G138" s="12"/>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H138" s="12"/>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
       <c r="D139" s="12"/>
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H139" s="12"/>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
       <c r="G140" s="12"/>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H140" s="12"/>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
       <c r="G141" s="12"/>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H141" s="12"/>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H142" s="12"/>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
       <c r="G143" s="12"/>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H143" s="12"/>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
       <c r="G144" s="12"/>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H144" s="12"/>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
       <c r="G145" s="12"/>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H145" s="12"/>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
       <c r="E146" s="12"/>
       <c r="F146" s="12"/>
       <c r="G146" s="12"/>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H146" s="12"/>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
       <c r="G147" s="12"/>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H147" s="12"/>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
       <c r="E148" s="12"/>
       <c r="F148" s="12"/>
       <c r="G148" s="12"/>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H148" s="12"/>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H149" s="12"/>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H150" s="12"/>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
       <c r="G151" s="12"/>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H151" s="12"/>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
       <c r="E152" s="12"/>
       <c r="F152" s="12"/>
       <c r="G152" s="12"/>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H152" s="12"/>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
       <c r="G153" s="12"/>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H153" s="12"/>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
       <c r="D154" s="13"/>
       <c r="E154" s="13"/>
       <c r="F154" s="13"/>
       <c r="G154" s="13"/>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H154" s="13"/>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
       <c r="E155" s="13"/>
       <c r="F155" s="13"/>
       <c r="G155" s="13"/>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H155" s="13"/>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
       <c r="E156" s="13"/>
       <c r="F156" s="13"/>
       <c r="G156" s="13"/>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H156" s="13"/>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
       <c r="E157" s="13"/>
       <c r="F157" s="13"/>
       <c r="G157" s="13"/>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H157" s="13"/>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
       <c r="E158" s="13"/>
       <c r="F158" s="13"/>
       <c r="G158" s="13"/>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H158" s="13"/>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
       <c r="E159" s="13"/>
       <c r="F159" s="13"/>
       <c r="G159" s="13"/>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H159" s="13"/>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
       <c r="D160" s="13"/>
       <c r="E160" s="13"/>
       <c r="F160" s="13"/>
       <c r="G160" s="13"/>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H160" s="13"/>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
       <c r="D161" s="13"/>
       <c r="E161" s="13"/>
       <c r="F161" s="13"/>
       <c r="G161" s="13"/>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H161" s="13"/>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
       <c r="D162" s="13"/>
       <c r="E162" s="13"/>
       <c r="F162" s="13"/>
       <c r="G162" s="13"/>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H162" s="13"/>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
       <c r="D163" s="13"/>
       <c r="E163" s="13"/>
       <c r="F163" s="13"/>
       <c r="G163" s="13"/>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H163" s="13"/>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
       <c r="D164" s="13"/>
       <c r="E164" s="13"/>
       <c r="F164" s="13"/>
       <c r="G164" s="13"/>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H164" s="13"/>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
       <c r="E165" s="13"/>
       <c r="F165" s="13"/>
       <c r="G165" s="13"/>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H165" s="13"/>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
       <c r="D166" s="13"/>
       <c r="E166" s="13"/>
       <c r="F166" s="13"/>
       <c r="G166" s="13"/>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H166" s="13"/>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
       <c r="E167" s="13"/>
       <c r="F167" s="13"/>
       <c r="G167" s="13"/>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H167" s="13"/>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
       <c r="E168" s="13"/>
       <c r="F168" s="13"/>
       <c r="G168" s="13"/>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H168" s="13"/>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
       <c r="D169" s="13"/>
       <c r="E169" s="13"/>
       <c r="F169" s="13"/>
       <c r="G169" s="13"/>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H169" s="13"/>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
       <c r="D170" s="13"/>
       <c r="E170" s="13"/>
       <c r="F170" s="13"/>
       <c r="G170" s="13"/>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H170" s="13"/>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
       <c r="D171" s="13"/>
       <c r="E171" s="13"/>
       <c r="F171" s="13"/>
       <c r="G171" s="13"/>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H171" s="13"/>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
       <c r="D172" s="13"/>
       <c r="E172" s="13"/>
       <c r="F172" s="13"/>
       <c r="G172" s="13"/>
-    </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H172" s="13"/>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
       <c r="E173" s="13"/>
       <c r="F173" s="13"/>
       <c r="G173" s="13"/>
-    </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H173" s="13"/>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
       <c r="D174" s="13"/>
       <c r="E174" s="13"/>
       <c r="F174" s="13"/>
       <c r="G174" s="13"/>
-    </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H174" s="13"/>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
       <c r="D175" s="13"/>
       <c r="E175" s="13"/>
       <c r="F175" s="13"/>
       <c r="G175" s="13"/>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H175" s="13"/>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
       <c r="F176" s="13"/>
       <c r="G176" s="13"/>
-    </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H176" s="13"/>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
       <c r="E177" s="13"/>
       <c r="F177" s="13"/>
       <c r="G177" s="13"/>
-    </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H177" s="13"/>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
       <c r="E178" s="13"/>
       <c r="F178" s="13"/>
       <c r="G178" s="13"/>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H178" s="13"/>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
       <c r="D179" s="13"/>
       <c r="E179" s="13"/>
       <c r="F179" s="13"/>
       <c r="G179" s="13"/>
-    </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H179" s="13"/>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
       <c r="D180" s="13"/>
       <c r="E180" s="13"/>
       <c r="F180" s="13"/>
       <c r="G180" s="13"/>
-    </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H180" s="13"/>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
       <c r="D181" s="13"/>
       <c r="E181" s="13"/>
       <c r="F181" s="13"/>
       <c r="G181" s="13"/>
-    </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H181" s="13"/>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
       <c r="F182" s="13"/>
       <c r="G182" s="13"/>
-    </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H182" s="13"/>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
       <c r="D183" s="13"/>
       <c r="E183" s="13"/>
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
-    </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H183" s="13"/>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
       <c r="D184" s="13"/>
       <c r="E184" s="13"/>
       <c r="F184" s="13"/>
       <c r="G184" s="13"/>
-    </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H184" s="13"/>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
       <c r="E185" s="13"/>
       <c r="F185" s="13"/>
       <c r="G185" s="13"/>
-    </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H185" s="13"/>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
       <c r="D186" s="13"/>
       <c r="E186" s="13"/>
       <c r="F186" s="13"/>
       <c r="G186" s="13"/>
-    </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H186" s="13"/>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
       <c r="D187" s="13"/>
       <c r="E187" s="13"/>
       <c r="F187" s="13"/>
       <c r="G187" s="13"/>
-    </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H187" s="13"/>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
       <c r="E188" s="13"/>
       <c r="F188" s="13"/>
       <c r="G188" s="13"/>
-    </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H188" s="13"/>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
       <c r="D189" s="13"/>
       <c r="E189" s="13"/>
       <c r="F189" s="13"/>
       <c r="G189" s="13"/>
-    </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H189" s="13"/>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
       <c r="D190" s="13"/>
       <c r="E190" s="13"/>
       <c r="F190" s="13"/>
       <c r="G190" s="13"/>
-    </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H190" s="13"/>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
       <c r="E191" s="13"/>
       <c r="F191" s="13"/>
       <c r="G191" s="13"/>
-    </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H191" s="13"/>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
       <c r="E192" s="13"/>
       <c r="F192" s="13"/>
       <c r="G192" s="13"/>
-    </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H192" s="13"/>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
       <c r="D193" s="13"/>
       <c r="E193" s="13"/>
       <c r="F193" s="13"/>
       <c r="G193" s="13"/>
-    </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H193" s="13"/>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
       <c r="D194" s="13"/>
       <c r="E194" s="13"/>
       <c r="F194" s="13"/>
       <c r="G194" s="13"/>
-    </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H194" s="13"/>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
       <c r="D195" s="13"/>
       <c r="E195" s="13"/>
       <c r="F195" s="13"/>
       <c r="G195" s="13"/>
-    </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H195" s="13"/>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
       <c r="E196" s="13"/>
       <c r="F196" s="13"/>
       <c r="G196" s="13"/>
-    </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H196" s="13"/>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
       <c r="E197" s="13"/>
       <c r="F197" s="13"/>
       <c r="G197" s="13"/>
-    </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H197" s="13"/>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
       <c r="D198" s="13"/>
       <c r="E198" s="13"/>
       <c r="F198" s="13"/>
       <c r="G198" s="13"/>
-    </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H198" s="13"/>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
       <c r="D199" s="13"/>
       <c r="E199" s="13"/>
       <c r="F199" s="13"/>
       <c r="G199" s="13"/>
-    </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H199" s="13"/>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
       <c r="D200" s="13"/>
       <c r="E200" s="13"/>
       <c r="F200" s="13"/>
       <c r="G200" s="13"/>
-    </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H200" s="13"/>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B201" s="13"/>
       <c r="C201" s="13"/>
       <c r="D201" s="13"/>
       <c r="E201" s="13"/>
       <c r="F201" s="13"/>
       <c r="G201" s="13"/>
-    </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H201" s="13"/>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B202" s="13"/>
       <c r="C202" s="13"/>
       <c r="D202" s="13"/>
       <c r="E202" s="13"/>
       <c r="F202" s="13"/>
       <c r="G202" s="13"/>
-    </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="H202" s="13"/>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.6">
       <c r="B203" s="13"/>
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
       <c r="E203" s="13"/>
       <c r="F203" s="13"/>
       <c r="G203" s="13"/>
+      <c r="H203" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
